--- a/Grade10List.xlsx
+++ b/Grade10List.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1932F0-629F-7545-A941-5EC748C96FE5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727491B4-EE72-1446-BE79-3F254A1EFA64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{19AAD86A-FDBD-FE46-A94C-153DF27610B0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="2" r:id="rId1"/>
+    <sheet name="Test" sheetId="3" r:id="rId2"/>
+    <sheet name="Chill Zone" sheetId="4" r:id="rId3"/>
+    <sheet name="Quiet Work" sheetId="5" r:id="rId4"/>
+    <sheet name="Academic Support" sheetId="6" r:id="rId5"/>
+    <sheet name="Group Work" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="13">
   <si>
     <t>Student Number</t>
   </si>
@@ -49,6 +54,21 @@
   </si>
   <si>
     <t>Reason</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Chill Zone</t>
   </si>
 </sst>
 </file>
@@ -402,14 +422,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2469550F-3B31-5347-80E8-871417AF0681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>43426.473106446756</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>43426.473106446756</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>43426.47316868055</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">

--- a/Grade10List.xlsx
+++ b/Grade10List.xlsx
@@ -3,26 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F5029C-96AB-2541-9AE3-5B93926805C9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E405756-0960-A14B-B834-4EE1C560E098}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
-    <sheet name="Test" r:id="rId5" sheetId="3"/>
-    <sheet name="Chill Zone" r:id="rId6" sheetId="4"/>
-    <sheet name="Quiet Work" r:id="rId7" sheetId="5"/>
-    <sheet name="Academic Support" r:id="rId8" sheetId="6"/>
-    <sheet name="Group Work" r:id="rId9" sheetId="7"/>
+    <sheet name="Test" sheetId="3" r:id="rId2"/>
+    <sheet name="Chill Zone" sheetId="4" r:id="rId3"/>
+    <sheet name="Quiet Work" sheetId="5" r:id="rId4"/>
+    <sheet name="Academic Support" sheetId="6" r:id="rId5"/>
+    <sheet name="Group Work" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
   <si>
     <t>Student Number</t>
   </si>
@@ -54,13 +55,27 @@
   </si>
   <si>
     <t>Reason</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Chill Zone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -90,12 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,15 +426,15 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" customWidth="true" width="11.6640625" collapsed="false"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -448,24 +461,45 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43426.550574166664</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43426.550574166664</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43426.550639456022</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,19 +526,84 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>43426.550574166664</v>
+      </c>
+      <c r="E2" s="2">
+        <v>43426.550574166664</v>
+      </c>
+      <c r="F2" s="2">
+        <v>43426.550639456022</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,19 +630,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,19 +669,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,45 +708,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Grade10List.xlsx
+++ b/Grade10List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E405756-0960-A14B-B834-4EE1C560E098}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DFB65-382E-E148-9140-614A9115A4D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
+    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Group Work" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>Student Number</t>
   </si>
@@ -57,19 +56,7 @@
     <t>Reason</t>
   </si>
   <si>
-    <t>111111111</t>
-  </si>
-  <si>
-    <t>Yash</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Chill Zone</t>
+    <t>Subject Missed</t>
   </si>
 </sst>
 </file>
@@ -423,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,7 +421,7 @@
     <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -459,32 +446,14 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43426.550574166664</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43426.550574166664</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43426.550639456022</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -493,13 +462,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,6 +492,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -532,13 +504,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="A2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,31 +584,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>43426.550574166664</v>
-      </c>
-      <c r="E2" s="2">
-        <v>43426.550574166664</v>
-      </c>
-      <c r="F2" s="2">
-        <v>43426.550639456022</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -595,15 +593,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -627,6 +625,9 @@
       </c>
       <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -634,15 +635,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -667,44 +670,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Grade10List.xlsx
+++ b/Grade10List.xlsx
@@ -3,26 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4DFB65-382E-E148-9140-614A9115A4D4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{A0289CAB-6866-B84C-B66B-2E28F2BCF590}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="560" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{5EAFCAD1-2523-D746-8D75-176EC8CBF95B}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DE3DE74F-B9EB-844A-A379-0C0BC4B8336B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Master" sheetId="2" r:id="rId1"/>
-    <sheet name="Test" sheetId="3" r:id="rId2"/>
-    <sheet name="Chill Zone" sheetId="4" r:id="rId3"/>
-    <sheet name="Quiet Work" sheetId="5" r:id="rId4"/>
-    <sheet name="Academic Support" sheetId="6" r:id="rId5"/>
-    <sheet name="Group Work" sheetId="7" r:id="rId6"/>
+    <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="2" r:id="rId2"/>
+    <sheet name="Chill Zone" sheetId="3" r:id="rId3"/>
+    <sheet name="Quiet Work" sheetId="4" r:id="rId4"/>
+    <sheet name="Academic Support" sheetId="5" r:id="rId5"/>
+    <sheet name="Group Work" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
   <si>
     <t>Student Number</t>
   </si>
@@ -57,12 +58,34 @@
   </si>
   <si>
     <t>Subject Missed</t>
+  </si>
+  <si>
+    <t>111111111</t>
+  </si>
+  <si>
+    <t>Yash</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Group Work</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Art</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -92,10 +115,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,19 +436,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8261B4-E6AE-8A4D-B294-53E2B203ED59}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="11.6640625" customWidth="1" collapsed="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,10 +474,63 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D2" s="1"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>43426.89297035879</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>43426.89297035879</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>43426.893146863425</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43426.891656747684</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43426.891656747684</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43426.891742974534</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -468,7 +545,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,6 +581,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -512,7 +631,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,48 +664,6 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -601,7 +678,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -637,15 +714,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,6 +749,64 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>43426.89297035879</v>
+      </c>
+      <c r="E2" s="6" t="n">
+        <v>43426.89297035879</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>43426.893146863425</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>43426.891656747684</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43426.891656747684</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43426.891742974534</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Grade10List.xlsx
+++ b/Grade10List.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="17">
   <si>
     <t>Student Number</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Art</t>
+  </si>
+  <si>
+    <t>Subject Working</t>
   </si>
 </sst>
 </file>
@@ -115,12 +118,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
@@ -437,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8261B4-E6AE-8A4D-B294-53E2B203ED59}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
@@ -471,6 +490,9 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Grade10List.xlsx
+++ b/Grade10List.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yasharora/Desktop/School/CompSci/SignInSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{A0289CAB-6866-B84C-B66B-2E28F2BCF590}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EC3FD3B-6879-CB42-8E8B-C4B39EFA7B22}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{DE3DE74F-B9EB-844A-A379-0C0BC4B8336B}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   <calcPr calcId="181029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="14">
   <si>
     <t>Student Number</t>
   </si>
@@ -69,23 +69,16 @@
     <t>A</t>
   </si>
   <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>Group Work</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Art</t>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Chill Zone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -115,14 +108,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8261B4-E6AE-8A4D-B294-53E2B203ED59}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,63 +469,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>43426.89297035879</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>43426.89297035879</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>43426.893146863425</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43426.891656747684</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43426.891656747684</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43426.891742974534</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -545,7 +487,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,13 +523,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -614,6 +556,35 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7">
+        <v>43426.908366689815</v>
+      </c>
+      <c r="E2" s="8">
+        <v>43426.908366689815</v>
+      </c>
+      <c r="F2" s="8">
+        <v>43426.908426354166</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -631,7 +602,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,57 +643,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="I2" sqref="A2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,63 +680,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>43426.89297035879</v>
-      </c>
-      <c r="E2" s="6" t="n">
-        <v>43426.89297035879</v>
-      </c>
-      <c r="F2" s="6" t="n">
-        <v>43426.893146863425</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>43426.891656747684</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43426.891656747684</v>
-      </c>
-      <c r="F2" s="4">
-        <v>43426.891742974534</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
